--- a/Instacart Basket Analysis 09-2025/05 Sent to client/Final Report.xlsx
+++ b/Instacart Basket Analysis 09-2025/05 Sent to client/Final Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jphar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C872204D-F992-4134-A468-8B12FEF0B1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC97AF1A-B321-4538-8F62-774F19460265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="230">
   <si>
     <t>Contents:</t>
   </si>
@@ -540,21 +540,9 @@
     <t>Region Key</t>
   </si>
   <si>
-    <t>Region 1</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
-    <t>Region 2</t>
-  </si>
-  <si>
-    <t>Region 3</t>
-  </si>
-  <si>
-    <t>Region 4</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -687,9 +675,6 @@
     <t>Middle Age, Low-Income Parent</t>
   </si>
   <si>
-    <t>- By Region, we can see that middle age adult with no kids for region 3 has the highest order volume for region 3, 4, and 2 respectively. Young age adult with no kids ends up being the 2nd highest group for the same regions</t>
-  </si>
-  <si>
     <t>- In assessing order volume for personal care, household, and baby items we see that middle-age parents with high income young parents with low-income account for 39.05% of order volume</t>
   </si>
   <si>
@@ -711,9 +696,6 @@
     <t>- Deals should consider items that are least purchased such as bulk items, pets, and alcohol</t>
   </si>
   <si>
-    <t>- Potentially incentivize sales in Region 1 as they are they lowest order volume region to bolster sales</t>
-  </si>
-  <si>
     <t>- The busiest time for orders received is between 9am to 4pm</t>
   </si>
   <si>
@@ -730,13 +712,34 @@
   </si>
   <si>
     <t>- Senior-age adults with high income account for 18.33% of order volume and middle-age parents with low income account for 15.59%</t>
+  </si>
+  <si>
+    <t>Region 1 (Northeast)</t>
+  </si>
+  <si>
+    <t>Region 2 (Midwest)</t>
+  </si>
+  <si>
+    <t>Region 3 (South)</t>
+  </si>
+  <si>
+    <t>Region 4 (West)</t>
+  </si>
+  <si>
+    <t>- Factoring regional data, the MA Zero group in region 3 is the largest group by order volume at 15.01%</t>
+  </si>
+  <si>
+    <t>- The MA Zero group is also The largest group for each of The regions, followed by The YA Zero group, SA HI group, and lastly The SA LI group</t>
+  </si>
+  <si>
+    <t>- Deals can be offered based on regions with the least number of orders such as Northeast and Midwest regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +851,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1424,7 +1433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1560,16 +1569,16 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1583,6 +1592,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16972,7 +16986,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="3155156"/>
+          <a:off x="7131844" y="3155156"/>
           <a:ext cx="5706271" cy="4382112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17162,13 +17176,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>377316</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18919,7 +18933,7 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19135,16 +19149,16 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="45.75" thickBot="1">
@@ -19152,13 +19166,13 @@
         <v>92</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickTop="1"/>
@@ -19173,16 +19187,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:AH433"/>
+  <dimension ref="B1:AH434"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A337" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M363" sqref="M363:N363"/>
+    <sheetView showGridLines="0" topLeftCell="A421" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H430" sqref="H430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
@@ -19201,41 +19215,41 @@
       </c>
     </row>
     <row r="11" spans="2:34" ht="28.5">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
     </row>
     <row r="12" spans="2:34" ht="23.25">
       <c r="B12" s="60"/>
@@ -19264,34 +19278,34 @@
     </row>
     <row r="41" spans="2:34" ht="23.25">
       <c r="B41" s="63" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="2:34" ht="46.5" customHeight="1">
-      <c r="B42" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="75"/>
+      <c r="B42" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
     </row>
     <row r="43" spans="2:34" ht="18.75">
       <c r="B43" s="48"/>
@@ -19316,41 +19330,41 @@
       <c r="P45" s="58"/>
     </row>
     <row r="46" spans="2:34" ht="28.5">
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="74"/>
-      <c r="AG46" s="74"/>
-      <c r="AH46" s="74"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
     </row>
     <row r="47" spans="2:34" ht="23.25">
       <c r="B47" s="60"/>
@@ -19369,7 +19383,7 @@
     </row>
     <row r="73" spans="2:34" ht="23.25">
       <c r="B73" s="63" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="2:34" ht="23.25">
@@ -19384,41 +19398,41 @@
       </c>
     </row>
     <row r="77" spans="2:34" ht="28.5">
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="74"/>
-      <c r="L77" s="74"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="74"/>
-      <c r="P77" s="74"/>
-      <c r="Q77" s="74"/>
-      <c r="R77" s="74"/>
-      <c r="S77" s="74"/>
-      <c r="T77" s="74"/>
-      <c r="U77" s="74"/>
-      <c r="V77" s="74"/>
-      <c r="W77" s="74"/>
-      <c r="X77" s="74"/>
-      <c r="Y77" s="74"/>
-      <c r="Z77" s="74"/>
-      <c r="AA77" s="74"/>
-      <c r="AB77" s="74"/>
-      <c r="AC77" s="74"/>
-      <c r="AD77" s="74"/>
-      <c r="AE77" s="74"/>
-      <c r="AF77" s="74"/>
-      <c r="AG77" s="74"/>
-      <c r="AH77" s="74"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="72"/>
+      <c r="W77" s="72"/>
+      <c r="X77" s="72"/>
+      <c r="Y77" s="72"/>
+      <c r="Z77" s="72"/>
+      <c r="AA77" s="72"/>
+      <c r="AB77" s="72"/>
+      <c r="AC77" s="72"/>
+      <c r="AD77" s="72"/>
+      <c r="AE77" s="72"/>
+      <c r="AF77" s="72"/>
+      <c r="AG77" s="72"/>
+      <c r="AH77" s="72"/>
     </row>
     <row r="79" spans="2:34" ht="23.25">
       <c r="B79" s="60"/>
@@ -19426,7 +19440,7 @@
     </row>
     <row r="111" spans="2:2" ht="21">
       <c r="B111" s="64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="2:34" ht="28.5">
@@ -19441,7 +19455,7 @@
     </row>
     <row r="115" spans="2:34" ht="23.25">
       <c r="B115" s="63" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="2:34" ht="46.5">
@@ -19450,41 +19464,41 @@
       </c>
     </row>
     <row r="120" spans="2:34" ht="28.5">
-      <c r="B120" s="74" t="s">
+      <c r="B120" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
-      <c r="L120" s="74"/>
-      <c r="M120" s="74"/>
-      <c r="N120" s="74"/>
-      <c r="O120" s="74"/>
-      <c r="P120" s="74"/>
-      <c r="Q120" s="74"/>
-      <c r="R120" s="74"/>
-      <c r="S120" s="74"/>
-      <c r="T120" s="74"/>
-      <c r="U120" s="74"/>
-      <c r="V120" s="74"/>
-      <c r="W120" s="74"/>
-      <c r="X120" s="74"/>
-      <c r="Y120" s="74"/>
-      <c r="Z120" s="74"/>
-      <c r="AA120" s="74"/>
-      <c r="AB120" s="74"/>
-      <c r="AC120" s="74"/>
-      <c r="AD120" s="74"/>
-      <c r="AE120" s="74"/>
-      <c r="AF120" s="74"/>
-      <c r="AG120" s="74"/>
-      <c r="AH120" s="74"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="72"/>
+      <c r="M120" s="72"/>
+      <c r="N120" s="72"/>
+      <c r="O120" s="72"/>
+      <c r="P120" s="72"/>
+      <c r="Q120" s="72"/>
+      <c r="R120" s="72"/>
+      <c r="S120" s="72"/>
+      <c r="T120" s="72"/>
+      <c r="U120" s="72"/>
+      <c r="V120" s="72"/>
+      <c r="W120" s="72"/>
+      <c r="X120" s="72"/>
+      <c r="Y120" s="72"/>
+      <c r="Z120" s="72"/>
+      <c r="AA120" s="72"/>
+      <c r="AB120" s="72"/>
+      <c r="AC120" s="72"/>
+      <c r="AD120" s="72"/>
+      <c r="AE120" s="72"/>
+      <c r="AF120" s="72"/>
+      <c r="AG120" s="72"/>
+      <c r="AH120" s="72"/>
     </row>
     <row r="121" spans="2:34" ht="28.5">
       <c r="B121" s="63"/>
@@ -19522,177 +19536,177 @@
       <c r="AH121" s="59"/>
     </row>
     <row r="123" spans="2:34">
-      <c r="L123" s="73" t="s">
+      <c r="L123" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="M123" s="73"/>
+      <c r="M123" s="80"/>
     </row>
     <row r="124" spans="2:34">
-      <c r="L124" s="56">
+      <c r="L124" s="81">
         <v>1</v>
       </c>
-      <c r="M124" s="56" t="s">
+      <c r="M124" s="81" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="125" spans="2:34">
-      <c r="L125" s="56">
+      <c r="L125" s="81">
         <v>2</v>
       </c>
-      <c r="M125" s="56" t="s">
+      <c r="M125" s="81" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="126" spans="2:34">
-      <c r="L126" s="56">
+      <c r="L126" s="81">
         <v>3</v>
       </c>
-      <c r="M126" s="56" t="s">
+      <c r="M126" s="81" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="127" spans="2:34">
-      <c r="L127" s="56">
+      <c r="L127" s="81">
         <v>4</v>
       </c>
-      <c r="M127" s="56" t="s">
+      <c r="M127" s="81" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="128" spans="2:34">
-      <c r="L128" s="56">
+      <c r="L128" s="81">
         <v>5</v>
       </c>
-      <c r="M128" s="56" t="s">
+      <c r="M128" s="81" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="129" spans="3:13">
-      <c r="L129" s="56">
+      <c r="L129" s="81">
         <v>6</v>
       </c>
-      <c r="M129" s="56" t="s">
+      <c r="M129" s="81" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="130" spans="3:13">
-      <c r="L130" s="56">
+      <c r="L130" s="81">
         <v>7</v>
       </c>
-      <c r="M130" s="56" t="s">
+      <c r="M130" s="81" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="131" spans="3:13">
-      <c r="L131" s="56">
+      <c r="L131" s="81">
         <v>8</v>
       </c>
-      <c r="M131" s="56" t="s">
+      <c r="M131" s="81" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="132" spans="3:13">
-      <c r="L132" s="56">
+      <c r="L132" s="81">
         <v>9</v>
       </c>
-      <c r="M132" s="56" t="s">
+      <c r="M132" s="81" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="133" spans="3:13">
-      <c r="L133" s="56">
+      <c r="L133" s="81">
         <v>10</v>
       </c>
-      <c r="M133" s="56" t="s">
+      <c r="M133" s="81" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="134" spans="3:13">
-      <c r="L134" s="56">
+      <c r="L134" s="81">
         <v>11</v>
       </c>
-      <c r="M134" s="56" t="s">
+      <c r="M134" s="81" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="135" spans="3:13">
-      <c r="L135" s="56">
+      <c r="L135" s="81">
         <v>12</v>
       </c>
-      <c r="M135" s="56" t="s">
+      <c r="M135" s="81" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="136" spans="3:13">
-      <c r="L136" s="56">
+      <c r="L136" s="81">
         <v>13</v>
       </c>
-      <c r="M136" s="56" t="s">
+      <c r="M136" s="81" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="137" spans="3:13">
-      <c r="L137" s="56">
+      <c r="L137" s="81">
         <v>14</v>
       </c>
-      <c r="M137" s="56" t="s">
+      <c r="M137" s="81" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="138" spans="3:13">
-      <c r="L138" s="56">
+      <c r="L138" s="81">
         <v>15</v>
       </c>
-      <c r="M138" s="56" t="s">
+      <c r="M138" s="81" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="139" spans="3:13">
-      <c r="L139" s="56">
+      <c r="L139" s="81">
         <v>16</v>
       </c>
-      <c r="M139" s="56" t="s">
+      <c r="M139" s="81" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="140" spans="3:13">
-      <c r="L140" s="56">
+      <c r="L140" s="81">
         <v>17</v>
       </c>
-      <c r="M140" s="56" t="s">
+      <c r="M140" s="81" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="141" spans="3:13">
-      <c r="L141" s="56">
+      <c r="L141" s="81">
         <v>18</v>
       </c>
-      <c r="M141" s="56" t="s">
+      <c r="M141" s="81" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="142" spans="3:13" ht="18.75">
       <c r="C142" s="48"/>
-      <c r="L142" s="56">
+      <c r="L142" s="81">
         <v>19</v>
       </c>
-      <c r="M142" s="56" t="s">
+      <c r="M142" s="81" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="143" spans="3:13">
-      <c r="L143" s="56">
+      <c r="L143" s="81">
         <v>20</v>
       </c>
-      <c r="M143" s="56" t="s">
+      <c r="M143" s="81" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="144" spans="3:13">
-      <c r="L144" s="56">
+      <c r="L144" s="81">
         <v>21</v>
       </c>
-      <c r="M144" s="56" t="s">
+      <c r="M144" s="81" t="s">
         <v>133</v>
       </c>
     </row>
@@ -19736,12 +19750,12 @@
     </row>
     <row r="156" spans="2:12" ht="21">
       <c r="L156" s="64" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="2:12" ht="21">
       <c r="L157" s="64" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="2:12" ht="28.5">
@@ -19792,7 +19806,7 @@
     </row>
     <row r="227" spans="2:13" ht="23.25">
       <c r="B227" s="63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="228" spans="2:13" ht="46.5">
@@ -19806,10 +19820,10 @@
       </c>
     </row>
     <row r="232" spans="2:13">
-      <c r="L232" s="73" t="s">
+      <c r="L232" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="M232" s="73"/>
+      <c r="M232" s="71"/>
     </row>
     <row r="233" spans="2:13">
       <c r="L233" s="56" t="s">
@@ -19908,17 +19922,17 @@
     </row>
     <row r="345" spans="2:27" ht="23.25">
       <c r="B345" s="63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="346" spans="2:27" ht="23.25">
       <c r="B346" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="347" spans="2:27" ht="23.25">
       <c r="B347" s="63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="348" spans="2:27" ht="46.5">
@@ -19932,12 +19946,12 @@
       </c>
     </row>
     <row r="351" spans="2:27">
-      <c r="X351" s="72"/>
-      <c r="Y351" s="72"/>
-      <c r="Z351" s="73" t="s">
+      <c r="X351" s="75"/>
+      <c r="Y351" s="75"/>
+      <c r="Z351" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AA351" s="73"/>
+      <c r="AA351" s="71"/>
     </row>
     <row r="352" spans="2:27">
       <c r="Z352" s="56">
@@ -19952,7 +19966,7 @@
         <v>164</v>
       </c>
       <c r="M353" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z353" s="56">
         <v>2</v>
@@ -19963,10 +19977,10 @@
     </row>
     <row r="354" spans="12:27">
       <c r="L354" s="56" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="M354" s="56" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z354" s="56">
         <v>3</v>
@@ -19977,10 +19991,10 @@
     </row>
     <row r="355" spans="12:27">
       <c r="L355" s="56" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="M355" s="56" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Z355" s="56">
         <v>4</v>
@@ -19991,10 +20005,10 @@
     </row>
     <row r="356" spans="12:27">
       <c r="L356" s="56" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="M356" s="56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z356" s="56">
         <v>5</v>
@@ -20005,10 +20019,10 @@
     </row>
     <row r="357" spans="12:27">
       <c r="L357" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="M357" s="56" t="s">
         <v>169</v>
-      </c>
-      <c r="M357" s="56" t="s">
-        <v>173</v>
       </c>
       <c r="Z357" s="56">
         <v>6</v>
@@ -20027,12 +20041,12 @@
     </row>
     <row r="359" spans="12:27">
       <c r="L359" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="M359" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="N359" s="71"/>
+        <v>193</v>
+      </c>
+      <c r="M359" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="N359" s="74"/>
       <c r="Z359" s="56">
         <v>8</v>
       </c>
@@ -20042,12 +20056,12 @@
     </row>
     <row r="360" spans="12:27">
       <c r="L360" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="M360" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="N360" s="71"/>
+        <v>194</v>
+      </c>
+      <c r="M360" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="N360" s="74"/>
       <c r="Z360" s="56">
         <v>9</v>
       </c>
@@ -20057,12 +20071,12 @@
     </row>
     <row r="361" spans="12:27">
       <c r="L361" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="M361" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="N361" s="71"/>
+        <v>196</v>
+      </c>
+      <c r="M361" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="N361" s="74"/>
       <c r="Z361" s="56">
         <v>10</v>
       </c>
@@ -20072,12 +20086,12 @@
     </row>
     <row r="362" spans="12:27">
       <c r="L362" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M362" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="N362" s="71"/>
+        <v>198</v>
+      </c>
+      <c r="M362" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="N362" s="74"/>
       <c r="Z362" s="56">
         <v>11</v>
       </c>
@@ -20087,12 +20101,12 @@
     </row>
     <row r="363" spans="12:27">
       <c r="L363" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="M363" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="N363" s="71"/>
+        <v>199</v>
+      </c>
+      <c r="M363" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="N363" s="74"/>
       <c r="Z363" s="56">
         <v>12</v>
       </c>
@@ -20174,79 +20188,79 @@
     </row>
     <row r="402" spans="26:27">
       <c r="Z402" s="56" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AA402" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="403" spans="26:27">
       <c r="Z403" s="56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AA403" s="56" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="404" spans="26:27">
       <c r="Z404" s="56" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AA404" s="56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="405" spans="26:27">
       <c r="Z405" s="56" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA405" s="56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="406" spans="26:27">
       <c r="Z406" s="56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AA406" s="56" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="407" spans="26:27">
       <c r="Z407" s="56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AA407" s="56" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="408" spans="26:27">
       <c r="Z408" s="56" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA408" s="56" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="409" spans="26:27">
       <c r="Z409" s="56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AA409" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="410" spans="26:27">
       <c r="Z410" s="56" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA410" s="56" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="423" spans="2:12" ht="21">
       <c r="B423" s="64" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C423" s="64"/>
       <c r="D423" s="64"/>
@@ -20266,50 +20280,63 @@
     </row>
     <row r="425" spans="2:12" ht="23.25">
       <c r="B425" s="63" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="426" spans="2:12" ht="23.25">
-      <c r="B426" s="63" t="s">
-        <v>214</v>
+      <c r="B426" s="82" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="427" spans="2:12" ht="23.25">
-      <c r="B427" s="63" t="s">
-        <v>215</v>
+      <c r="B427" s="82"/>
+      <c r="C427" s="82" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="428" spans="2:12" ht="23.25">
-      <c r="B428" s="63"/>
-      <c r="C428" s="63" t="s">
-        <v>228</v>
+      <c r="B428" s="63" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="429" spans="2:12" ht="23.25">
-      <c r="B429" s="63" t="s">
-        <v>216</v>
+      <c r="B429" s="63"/>
+      <c r="C429" s="63" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="430" spans="2:12" ht="23.25">
-      <c r="B430" s="63"/>
-      <c r="C430" s="63" t="s">
-        <v>217</v>
+      <c r="B430" s="63" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="431" spans="2:12" ht="23.25">
       <c r="B431" s="63"/>
-      <c r="C431" s="63"/>
-    </row>
-    <row r="432" spans="2:12" ht="46.5">
-      <c r="B432" s="58" t="s">
+      <c r="C431" s="63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="432" spans="2:12" ht="23.25">
+      <c r="B432" s="63"/>
+      <c r="C432" s="63"/>
+    </row>
+    <row r="433" spans="2:2" ht="46.5">
+      <c r="B433" s="58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="23.25">
-      <c r="B433" s="63"/>
+    <row r="434" spans="2:2" ht="23.25">
+      <c r="B434" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="X351:Y351"/>
+    <mergeCell ref="Z351:AA351"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="L232:M232"/>
     <mergeCell ref="B77:AH77"/>
@@ -20317,13 +20344,6 @@
     <mergeCell ref="B11:AH11"/>
     <mergeCell ref="B42:W42"/>
     <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="X351:Y351"/>
-    <mergeCell ref="Z351:AA351"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -20338,8 +20358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -20383,7 +20403,7 @@
     </row>
     <row r="15" spans="2:17" ht="45">
       <c r="B15" s="76" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="77"/>
       <c r="D15" s="57" t="s">
@@ -20396,7 +20416,7 @@
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="57" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45.75" customHeight="1">
@@ -20405,7 +20425,7 @@
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="39" customHeight="1">
@@ -20414,7 +20434,7 @@
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="57" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="31.5" customHeight="1">
@@ -20423,7 +20443,7 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="57" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="32.25" customHeight="1">
@@ -20432,7 +20452,7 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="57" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="51.75" customHeight="1">
@@ -20441,7 +20461,7 @@
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="78" customHeight="1">
@@ -20450,7 +20470,7 @@
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="57" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -20460,22 +20480,22 @@
     </row>
     <row r="26" spans="2:4" ht="21">
       <c r="B26" s="70" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="21">
       <c r="B27" s="70" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="21">
       <c r="B28" s="70" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="21">
       <c r="B29" s="70" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -20489,17 +20509,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
